--- a/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DC_R-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>206748</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>184739</v>
+        <v>185477</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>227742</v>
+        <v>229187</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3573676754988813</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3193261030699746</v>
+        <v>0.3206017505086829</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.393657423141973</v>
+        <v>0.3961547476922131</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>868</v>
@@ -762,19 +762,19 @@
         <v>483088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>461567</v>
+        <v>460093</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>505326</v>
+        <v>505831</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5876711145076912</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5614904909548474</v>
+        <v>0.5596978800192431</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6147229781006003</v>
+        <v>0.615337970099436</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1148</v>
@@ -783,19 +783,19 @@
         <v>689835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>658941</v>
+        <v>655610</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>722378</v>
+        <v>721728</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4925401517593485</v>
+        <v>0.4925401517593483</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4704819119691013</v>
+        <v>0.4681033311023357</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5157751054478201</v>
+        <v>0.5153113522223228</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>371781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>350787</v>
+        <v>349342</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>393790</v>
+        <v>393052</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6426323245011187</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6063425768580269</v>
+        <v>0.6038452523077867</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6806738969300254</v>
+        <v>0.6793982494913171</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>559</v>
@@ -833,19 +833,19 @@
         <v>338950</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>316712</v>
+        <v>316207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>360471</v>
+        <v>361945</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4123288854923088</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3852770218993996</v>
+        <v>0.384662029900564</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4385095090451524</v>
+        <v>0.4403021199807569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>970</v>
@@ -854,19 +854,19 @@
         <v>710732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>678189</v>
+        <v>678839</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>741626</v>
+        <v>744957</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.5074598482406517</v>
+        <v>0.5074598482406516</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4842248945521802</v>
+        <v>0.4846886477776773</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5295180880308991</v>
+        <v>0.5318966688976642</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>477496</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>438212</v>
+        <v>440875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>524401</v>
+        <v>522138</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.2140695825467844</v>
+        <v>0.2140695825467845</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1964577935709259</v>
+        <v>0.1976516906356367</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2350976116107968</v>
+        <v>0.2340829785239013</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1112</v>
@@ -979,19 +979,19 @@
         <v>779539</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>738772</v>
+        <v>736847</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>821771</v>
+        <v>822481</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.3590043319999963</v>
+        <v>0.3590043319999962</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3402295995719405</v>
+        <v>0.3393429626110355</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3784534714286271</v>
+        <v>0.3787805264620521</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1598</v>
@@ -1000,19 +1000,19 @@
         <v>1257036</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1194174</v>
+        <v>1198312</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1315186</v>
+        <v>1315791</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.285562799853441</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.27128229944758</v>
+        <v>0.2722225484191751</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2987728432180253</v>
+        <v>0.2989103573590422</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1753070</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1706165</v>
+        <v>1708428</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1792354</v>
+        <v>1789691</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7859304174532158</v>
+        <v>0.7859304174532156</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7649023883892031</v>
+        <v>0.7659170214760986</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8035422064290739</v>
+        <v>0.8023483093643632</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1809</v>
@@ -1050,19 +1050,19 @@
         <v>1391853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1349621</v>
+        <v>1348911</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1432620</v>
+        <v>1434545</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6409956680000038</v>
+        <v>0.6409956680000036</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6215465285713727</v>
+        <v>0.6212194735379478</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6597704004280593</v>
+        <v>0.6606570373889644</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3315</v>
@@ -1071,19 +1071,19 @@
         <v>3144923</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3086773</v>
+        <v>3086168</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3207785</v>
+        <v>3203647</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7144372001465591</v>
+        <v>0.714437200146559</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7012271567819747</v>
+        <v>0.7010896426409579</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.72871770055242</v>
+        <v>0.7277774515808246</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>120718</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102302</v>
+        <v>103510</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>141698</v>
+        <v>143134</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.1696460790971756</v>
+        <v>0.1696460790971755</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1437656538369596</v>
+        <v>0.1454630130368647</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1991294993348461</v>
+        <v>0.2011478631091262</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>340</v>
@@ -1196,19 +1196,19 @@
         <v>249443</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>226669</v>
+        <v>225974</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>272937</v>
+        <v>271051</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3394346558069904</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3084441666444365</v>
+        <v>0.3074995756475364</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3714046399895761</v>
+        <v>0.3688380714239227</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>466</v>
@@ -1217,19 +1217,19 @@
         <v>370161</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336880</v>
+        <v>337384</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400072</v>
+        <v>405309</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2559072931108105</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2328990812019637</v>
+        <v>0.233247262427047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2765863030328341</v>
+        <v>0.280206788772567</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>590869</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>569889</v>
+        <v>568453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609285</v>
+        <v>608077</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8303539209028246</v>
+        <v>0.8303539209028244</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8008705006651536</v>
+        <v>0.7988521368908739</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8562343461630406</v>
+        <v>0.8545369869631353</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>664</v>
@@ -1267,19 +1267,19 @@
         <v>485434</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>461940</v>
+        <v>463826</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>508208</v>
+        <v>508903</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6605653441930095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.628595360010424</v>
+        <v>0.6311619285760776</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6915558333555638</v>
+        <v>0.6925004243524637</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1219</v>
@@ -1288,19 +1288,19 @@
         <v>1076303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1046392</v>
+        <v>1041155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1109584</v>
+        <v>1109080</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7440927068891896</v>
+        <v>0.7440927068891895</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7234136969671668</v>
+        <v>0.7197932112274331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7671009187980372</v>
+        <v>0.766752737572953</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>804962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>754147</v>
+        <v>756754</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>863489</v>
+        <v>856144</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2286380556592975</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2142046921986694</v>
+        <v>0.2149451945190009</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2452618930212798</v>
+        <v>0.2431755157127316</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2320</v>
@@ -1413,19 +1413,19 @@
         <v>1512070</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1458205</v>
+        <v>1460212</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>1567809</v>
+        <v>1566814</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4055647227685689</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3911172320332473</v>
+        <v>0.3916555168996511</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4205151225472263</v>
+        <v>0.420248019578204</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3212</v>
@@ -1434,19 +1434,19 @@
         <v>2317032</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2238290</v>
+        <v>2240089</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>2389295</v>
+        <v>2396179</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3196351426689848</v>
+        <v>0.3196351426689847</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3087726095074566</v>
+        <v>0.3090208327946065</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3296038618754972</v>
+        <v>0.3305535157024231</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>2715721</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2657194</v>
+        <v>2664539</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2766536</v>
+        <v>2763929</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7713619443407023</v>
+        <v>0.7713619443407027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7547381069787198</v>
+        <v>0.7568244842872681</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7857953078013308</v>
+        <v>0.7850548054809992</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3032</v>
@@ -1484,19 +1484,19 @@
         <v>2216237</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2160498</v>
+        <v>2161493</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2270102</v>
+        <v>2268095</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.594435277231431</v>
+        <v>0.5944352772314311</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5794848774527737</v>
+        <v>0.579751980421796</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6088827679667528</v>
+        <v>0.6083444831003489</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5504</v>
@@ -1505,19 +1505,19 @@
         <v>4931958</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4859695</v>
+        <v>4852811</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5010700</v>
+        <v>5008901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6803648573310153</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6703961381245022</v>
+        <v>0.6694464842975767</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6912273904925431</v>
+        <v>0.6909791672053934</v>
       </c>
     </row>
     <row r="15">
